--- a/Civilworks cost/RADP_20_21/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP_20_21/Projecttion_output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP_20_21\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="Structure_Wise_payment" sheetId="6" r:id="rId6"/>
     <sheet name="DPP_Wise_payment" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -881,8 +876,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,13 +929,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,14 +940,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1002,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,10 +1018,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,7 +1052,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1245,14 +1227,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1289,7 +1271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1309,7 +1291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1329,7 +1311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1349,7 +1331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1369,7 +1351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1389,7 +1371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1409,7 +1391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1429,7 +1411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1449,7 +1431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1469,7 +1451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1489,7 +1471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1509,7 +1491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1529,7 +1511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1549,7 +1531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1575,14 +1557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1623,7 +1605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1637,7 +1619,7 @@
         <v>219</v>
       </c>
       <c r="E2">
-        <v>2.1509999999999998</v>
+        <v>2.151</v>
       </c>
       <c r="F2">
         <v>40.94</v>
@@ -1667,7 +1649,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1684,7 +1666,7 @@
         <v>1.22</v>
       </c>
       <c r="F3">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -1711,7 +1693,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1755,7 +1737,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1799,7 +1781,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1843,7 +1825,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1887,7 +1869,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1931,7 +1913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1948,7 +1930,7 @@
         <v>2.98</v>
       </c>
       <c r="F9">
-        <v>31.957608910000001</v>
+        <v>31.95760891</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1975,7 +1957,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1989,10 +1971,10 @@
         <v>219</v>
       </c>
       <c r="E10">
-        <v>4.4749999999999996</v>
+        <v>4.475</v>
       </c>
       <c r="F10">
-        <v>93.435120429999998</v>
+        <v>93.43512043</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2019,7 +2001,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2033,10 +2015,10 @@
         <v>219</v>
       </c>
       <c r="E11">
-        <v>2.2250000000000001</v>
+        <v>2.225</v>
       </c>
       <c r="F11">
-        <v>52.172189199999998</v>
+        <v>52.1721892</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2063,7 +2045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2080,7 +2062,7 @@
         <v>0.46</v>
       </c>
       <c r="F12">
-        <v>16.201039130000002</v>
+        <v>16.20103913</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2107,7 +2089,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2124,7 +2106,7 @@
         <v>2.79</v>
       </c>
       <c r="F13">
-        <v>68.859880000000004</v>
+        <v>68.85988</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2151,7 +2133,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2195,7 +2177,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2212,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>155.51140000000001</v>
+        <v>155.5114</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2239,7 +2221,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2253,10 +2235,10 @@
         <v>219</v>
       </c>
       <c r="E16">
-        <v>10.382999999999999</v>
+        <v>10.383</v>
       </c>
       <c r="F16">
-        <v>247.12549999999999</v>
+        <v>247.1255</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2283,7 +2265,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2300,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>286.82060000000001</v>
+        <v>286.8206</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2327,7 +2309,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2344,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2371,7 +2353,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2388,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2415,7 +2397,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2459,7 +2441,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2473,10 +2455,10 @@
         <v>219</v>
       </c>
       <c r="E21">
-        <v>6.4710000000000001</v>
+        <v>6.471</v>
       </c>
       <c r="F21">
-        <v>256.87133634355001</v>
+        <v>256.87133634355</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2503,7 +2485,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2547,7 +2529,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2561,10 +2543,10 @@
         <v>219</v>
       </c>
       <c r="E23">
-        <v>1.6970000000000001</v>
+        <v>1.697</v>
       </c>
       <c r="F23">
-        <v>35.281961160000002</v>
+        <v>35.28196116</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2591,7 +2573,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2605,10 +2587,10 @@
         <v>219</v>
       </c>
       <c r="E24">
-        <v>8.2999999999999963E-2</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="F24">
-        <v>4.0969036680000004</v>
+        <v>4.096903668</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2635,7 +2617,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2649,10 +2631,10 @@
         <v>219</v>
       </c>
       <c r="E25">
-        <v>0.58999999999999986</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="F25">
-        <v>8.7692750109999995</v>
+        <v>8.769275011</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2679,7 +2661,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2693,10 +2675,10 @@
         <v>219</v>
       </c>
       <c r="E26">
-        <v>7.4940000000000007</v>
+        <v>7.494000000000001</v>
       </c>
       <c r="F26">
-        <v>156.82266490000001</v>
+        <v>156.8226649</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2723,7 +2705,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2767,7 +2749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2781,10 +2763,10 @@
         <v>219</v>
       </c>
       <c r="E28">
-        <v>0.85099999999999909</v>
+        <v>0.8509999999999991</v>
       </c>
       <c r="F28">
-        <v>17.898320479999999</v>
+        <v>17.89832048</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2811,7 +2793,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2828,7 +2810,7 @@
         <v>12.214</v>
       </c>
       <c r="F29">
-        <v>325.54000000000002</v>
+        <v>325.54</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2855,7 +2837,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2899,7 +2881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2943,7 +2925,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2960,7 +2942,7 @@
         <v>3.99</v>
       </c>
       <c r="F32">
-        <v>99.576484249999993</v>
+        <v>99.57648424999999</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2987,7 +2969,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3031,7 +3013,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3048,7 +3030,7 @@
         <v>0.6</v>
       </c>
       <c r="F34">
-        <v>16.015440000000002</v>
+        <v>16.01544</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3075,7 +3057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3092,7 +3074,7 @@
         <v>8.4</v>
       </c>
       <c r="F35">
-        <v>225.95173299999999</v>
+        <v>225.951733</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3119,7 +3101,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3163,7 +3145,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3180,7 +3162,7 @@
         <v>1.73</v>
       </c>
       <c r="F37">
-        <v>20.549423050000001</v>
+        <v>20.54942305</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3207,7 +3189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3224,7 +3206,7 @@
         <v>1.615</v>
       </c>
       <c r="F38">
-        <v>26.078112170000001</v>
+        <v>26.07811217</v>
       </c>
       <c r="G38">
         <v>2.16</v>
@@ -3251,7 +3233,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3268,7 +3250,7 @@
         <v>3.6</v>
       </c>
       <c r="F39">
-        <v>46.887345910000001</v>
+        <v>46.88734591</v>
       </c>
       <c r="G39">
         <v>0.4</v>
@@ -3295,7 +3277,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3309,10 +3291,10 @@
         <v>219</v>
       </c>
       <c r="E40">
-        <v>6.8540000000000001</v>
+        <v>6.854</v>
       </c>
       <c r="F40">
-        <v>130.11837389999999</v>
+        <v>130.1183739</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3339,7 +3321,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3356,7 +3338,7 @@
         <v>6.1</v>
       </c>
       <c r="F41">
-        <v>120.33133599999999</v>
+        <v>120.331336</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3383,7 +3365,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3400,7 +3382,7 @@
         <v>5.7</v>
       </c>
       <c r="F42">
-        <v>424.00323129999998</v>
+        <v>424.0032313</v>
       </c>
       <c r="G42">
         <v>0.65</v>
@@ -3427,7 +3409,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3444,7 +3426,7 @@
         <v>10.86</v>
       </c>
       <c r="F43">
-        <v>197.63842210000001</v>
+        <v>197.6384221</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3471,7 +3453,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3515,7 +3497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3559,7 +3541,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3603,7 +3585,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3647,7 +3629,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3691,7 +3673,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3708,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>143.61383592000001</v>
+        <v>143.61383592</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3735,7 +3717,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3779,7 +3761,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3796,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>128.66999999999999</v>
+        <v>128.67</v>
       </c>
       <c r="G51">
         <v>0.45</v>
@@ -3823,7 +3805,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3867,7 +3849,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3911,7 +3893,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3955,7 +3937,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3999,7 +3981,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4016,7 +3998,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>253.89347740292999</v>
+        <v>253.89347740293</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -4043,7 +4025,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4060,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>277.03648500092999</v>
+        <v>277.03648500093</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4087,7 +4069,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4104,7 +4086,7 @@
         <v>3.9</v>
       </c>
       <c r="F58">
-        <v>18.396996112979998</v>
+        <v>18.39699611298</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4131,7 +4113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4148,7 +4130,7 @@
         <v>0.6</v>
       </c>
       <c r="F59">
-        <v>4.3979713727399998</v>
+        <v>4.39797137274</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -4175,7 +4157,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4192,7 +4174,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>99.257006847780005</v>
+        <v>99.25700684778</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4219,7 +4201,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4263,7 +4245,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4277,7 +4259,7 @@
         <v>219</v>
       </c>
       <c r="E62">
-        <v>0.36699999999999999</v>
+        <v>0.367</v>
       </c>
       <c r="F62">
         <v>167.9839919838</v>
@@ -4307,7 +4289,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4351,7 +4333,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4395,7 +4377,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4412,7 +4394,7 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>576.66999999999996</v>
+        <v>576.67</v>
       </c>
       <c r="G65">
         <v>0.4</v>
@@ -4439,7 +4421,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4483,7 +4465,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4497,7 +4479,7 @@
         <v>219</v>
       </c>
       <c r="E67">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="F67">
         <v>680.42</v>
@@ -4527,7 +4509,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4571,7 +4553,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4588,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="F69">
-        <v>616.91999999999996</v>
+        <v>616.92</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -4615,7 +4597,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4659,7 +4641,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4703,7 +4685,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4747,7 +4729,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4791,7 +4773,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4808,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>217.53240973000001</v>
+        <v>217.53240973</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -4835,7 +4817,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4879,7 +4861,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4923,7 +4905,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4967,7 +4949,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5011,7 +4993,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5055,7 +5037,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5099,7 +5081,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5143,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5160,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="F82">
-        <v>274.47000000000003</v>
+        <v>274.47</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -5187,7 +5169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5204,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>159.86056307000001</v>
+        <v>159.86056307</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -5231,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5275,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5292,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>186.82053396000001</v>
+        <v>186.82053396</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -5319,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5363,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5407,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5424,7 +5406,7 @@
         <v>1.51</v>
       </c>
       <c r="F88">
-        <v>35.704111949999998</v>
+        <v>35.70411195</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -5451,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5465,10 +5447,10 @@
         <v>219</v>
       </c>
       <c r="E89">
-        <v>0.72499999999999998</v>
+        <v>0.725</v>
       </c>
       <c r="F89">
-        <v>17.142702759999999</v>
+        <v>17.14270276</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -5495,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5509,10 +5491,10 @@
         <v>219</v>
       </c>
       <c r="E90">
-        <v>2.5150000000000001</v>
+        <v>2.515</v>
       </c>
       <c r="F90">
-        <v>59.467444999999998</v>
+        <v>59.467445</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -5539,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5553,10 +5535,10 @@
         <v>219</v>
       </c>
       <c r="E91">
-        <v>5.9850000000000003</v>
+        <v>5.985</v>
       </c>
       <c r="F91">
-        <v>141.51596699999999</v>
+        <v>141.515967</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -5583,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5627,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5644,7 +5626,7 @@
         <v>15.82</v>
       </c>
       <c r="F93">
-        <v>472.96222940669998</v>
+        <v>472.9622294067</v>
       </c>
       <c r="G93">
         <v>0.19</v>
@@ -5671,7 +5653,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5685,10 +5667,10 @@
         <v>219</v>
       </c>
       <c r="E94">
-        <v>7.1130000000000004</v>
+        <v>7.113</v>
       </c>
       <c r="F94">
-        <v>374.96375491013998</v>
+        <v>374.96375491014</v>
       </c>
       <c r="G94">
         <v>0.25</v>
@@ -5715,7 +5697,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5759,7 +5741,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5803,7 +5785,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5847,7 +5829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5891,7 +5873,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5908,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>41.018582780000003</v>
+        <v>41.01858278</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -5935,7 +5917,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5979,7 +5961,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5996,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6023,7 +6005,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6040,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="G102">
         <v>0.75</v>
@@ -6067,7 +6049,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6087,10 +6069,10 @@
         <v>334.27</v>
       </c>
       <c r="G103">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="H103">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="I103" t="s">
         <v>240</v>
@@ -6111,7 +6093,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6128,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>321.39906300000001</v>
+        <v>321.399063</v>
       </c>
       <c r="G104">
         <v>0.48</v>
@@ -6155,7 +6137,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6172,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>156.68207290000001</v>
+        <v>156.6820729</v>
       </c>
       <c r="G105">
         <v>0.45</v>
@@ -6199,7 +6181,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6243,7 +6225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6257,10 +6239,10 @@
         <v>219</v>
       </c>
       <c r="E107">
-        <v>9.4939999999999998</v>
+        <v>9.494</v>
       </c>
       <c r="F107">
-        <v>329.10739257350991</v>
+        <v>329.1073925735099</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -6287,7 +6269,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6301,10 +6283,10 @@
         <v>219</v>
       </c>
       <c r="E108">
-        <v>10.462999999999999</v>
+        <v>10.463</v>
       </c>
       <c r="F108">
-        <v>235.99241562002001</v>
+        <v>235.99241562002</v>
       </c>
       <c r="G108">
         <v>0.8</v>
@@ -6331,7 +6313,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6375,7 +6357,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6419,7 +6401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6436,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>5.8813662830000002</v>
+        <v>5.881366283</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -6463,7 +6445,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6477,10 +6459,10 @@
         <v>219</v>
       </c>
       <c r="E112">
-        <v>0.58399999999999996</v>
+        <v>0.584</v>
       </c>
       <c r="F112">
-        <v>8.1389467849999999</v>
+        <v>8.138946785</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -6507,7 +6489,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6524,7 +6506,7 @@
         <v>2.9</v>
       </c>
       <c r="F113">
-        <v>84.879744000000002</v>
+        <v>84.879744</v>
       </c>
       <c r="G113">
         <v>0.16</v>
@@ -6551,7 +6533,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6595,7 +6577,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6612,7 +6594,7 @@
         <v>1.9</v>
       </c>
       <c r="F115">
-        <v>2.4463474449999998</v>
+        <v>2.446347445</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -6639,7 +6621,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6656,7 +6638,7 @@
         <v>1.7</v>
       </c>
       <c r="F116">
-        <v>14.607284999999999</v>
+        <v>14.607285</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -6683,7 +6665,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6700,7 +6682,7 @@
         <v>0.439</v>
       </c>
       <c r="F117">
-        <v>4.4591922139999998</v>
+        <v>4.459192214</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -6727,7 +6709,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6771,7 +6753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6788,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6815,7 +6797,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6832,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6859,7 +6841,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6876,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6903,7 +6885,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6947,7 +6929,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6964,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>295.52623265905999</v>
+        <v>295.52623265906</v>
       </c>
       <c r="G123">
         <v>0.85</v>
@@ -6991,7 +6973,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7008,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>227.06035419159991</v>
+        <v>227.0603541915999</v>
       </c>
       <c r="G124">
         <v>0.95</v>
@@ -7035,7 +7017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7049,10 +7031,10 @@
         <v>219</v>
       </c>
       <c r="E125">
-        <v>1.7749999999999999</v>
+        <v>1.775</v>
       </c>
       <c r="F125">
-        <v>28.577189027549998</v>
+        <v>28.57718902755</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -7079,7 +7061,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7096,7 +7078,7 @@
         <v>0.15</v>
       </c>
       <c r="F126">
-        <v>3.8603672257600001</v>
+        <v>3.86036722576</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -7123,7 +7105,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7140,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="F127">
-        <v>38.929323272960012</v>
+        <v>38.92932327296001</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -7167,7 +7149,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7184,7 +7166,7 @@
         <v>4</v>
       </c>
       <c r="F128">
-        <v>62.861978238559992</v>
+        <v>62.86197823855999</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -7211,7 +7193,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7255,7 +7237,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7272,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>405.93708967677009</v>
+        <v>405.9370896767701</v>
       </c>
       <c r="G130">
         <v>0.65</v>
@@ -7299,7 +7281,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7316,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>320.03459359999999</v>
+        <v>320.0345936</v>
       </c>
       <c r="G131">
         <v>0.88</v>
@@ -7343,7 +7325,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7360,7 +7342,7 @@
         <v>1.65</v>
       </c>
       <c r="F132">
-        <v>54.403540110000002</v>
+        <v>54.40354011</v>
       </c>
       <c r="G132">
         <v>0.36</v>
@@ -7387,7 +7369,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7431,7 +7413,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7448,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="F134">
-        <v>288.07948569393011</v>
+        <v>288.0794856939301</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7475,7 +7457,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7492,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>189.52974883928999</v>
+        <v>189.52974883929</v>
       </c>
       <c r="G135">
         <v>0.65</v>
@@ -7519,7 +7501,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -7536,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>41.822123349999998</v>
+        <v>41.82212335</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -7563,7 +7545,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7607,7 +7589,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7651,7 +7633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7668,7 +7650,7 @@
         <v>3.96</v>
       </c>
       <c r="F139">
-        <v>71.526410010000006</v>
+        <v>71.52641001000001</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -7695,7 +7677,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7739,7 +7721,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7753,10 +7735,10 @@
         <v>219</v>
       </c>
       <c r="E141">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="F141">
-        <v>16.387823999999998</v>
+        <v>16.387824</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -7783,7 +7765,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7833,14 +7815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>262</v>
       </c>
@@ -7851,7 +7833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7865,7 +7847,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7879,7 +7861,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7890,10 +7872,10 @@
         <v>224</v>
       </c>
       <c r="D4">
-        <v>625.92999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>625.9299999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7904,10 +7886,10 @@
         <v>225</v>
       </c>
       <c r="D5">
-        <v>714.69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>714.6900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7921,7 +7903,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7935,7 +7917,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7946,10 +7928,10 @@
         <v>228</v>
       </c>
       <c r="D8">
-        <v>565.07000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>565.0700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7963,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7977,7 +7959,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7991,7 +7973,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8005,7 +7987,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8019,7 +8001,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8030,10 +8012,10 @@
         <v>233</v>
       </c>
       <c r="D14">
-        <v>647.20000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>647.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8047,7 +8029,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8061,7 +8043,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8075,7 +8057,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8089,7 +8071,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8103,7 +8085,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8117,7 +8099,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8131,7 +8113,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8145,7 +8127,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8159,7 +8141,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8173,7 +8155,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8187,7 +8169,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8201,7 +8183,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8215,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8229,7 +8211,7 @@
         <v>319.33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8243,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8257,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8271,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8285,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8299,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8313,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8327,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8341,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8355,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8369,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8389,14 +8371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -8434,7 +8416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8451,7 +8433,7 @@
         <v>219</v>
       </c>
       <c r="F2">
-        <v>2.1509999999999998</v>
+        <v>2.151</v>
       </c>
       <c r="G2">
         <v>40.94</v>
@@ -8475,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8495,7 +8477,7 @@
         <v>1.22</v>
       </c>
       <c r="G3">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8504,10 +8486,10 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="K3">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -8516,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8557,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8598,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8639,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8680,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8721,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8741,7 +8723,7 @@
         <v>2.98</v>
       </c>
       <c r="G9">
-        <v>31.957608910000001</v>
+        <v>31.95760891</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -8750,10 +8732,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>31.957608910000001</v>
+        <v>31.95760891</v>
       </c>
       <c r="K9">
-        <v>31.957608910000001</v>
+        <v>31.95760891</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -8762,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8779,10 +8761,10 @@
         <v>219</v>
       </c>
       <c r="F10">
-        <v>4.4749999999999996</v>
+        <v>4.475</v>
       </c>
       <c r="G10">
-        <v>93.435120429999998</v>
+        <v>93.43512043</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -8791,10 +8773,10 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>93.435120429999998</v>
+        <v>93.43512043</v>
       </c>
       <c r="K10">
-        <v>93.435120429999998</v>
+        <v>93.43512043</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -8803,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8820,10 +8802,10 @@
         <v>219</v>
       </c>
       <c r="F11">
-        <v>2.2250000000000001</v>
+        <v>2.225</v>
       </c>
       <c r="G11">
-        <v>52.172189199999998</v>
+        <v>52.1721892</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -8832,10 +8814,10 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>52.172189199999998</v>
+        <v>52.1721892</v>
       </c>
       <c r="K11">
-        <v>52.172189199999998</v>
+        <v>52.1721892</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -8844,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8864,7 +8846,7 @@
         <v>0.46</v>
       </c>
       <c r="G12">
-        <v>16.201039130000002</v>
+        <v>16.20103913</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -8873,10 +8855,10 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>16.201039130000002</v>
+        <v>16.20103913</v>
       </c>
       <c r="K12">
-        <v>16.201039130000002</v>
+        <v>16.20103913</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -8885,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8905,7 +8887,7 @@
         <v>2.79</v>
       </c>
       <c r="G13">
-        <v>68.859880000000004</v>
+        <v>68.85988</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -8914,10 +8896,10 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>68.859880000000004</v>
+        <v>68.85988</v>
       </c>
       <c r="K13">
-        <v>68.859880000000004</v>
+        <v>68.85988</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -8926,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8967,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8987,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>155.51140000000001</v>
+        <v>155.5114</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -8996,10 +8978,10 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>155.51140000000001</v>
+        <v>155.5114</v>
       </c>
       <c r="K15">
-        <v>155.51140000000001</v>
+        <v>155.5114</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -9008,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9025,10 +9007,10 @@
         <v>219</v>
       </c>
       <c r="F16">
-        <v>10.382999999999999</v>
+        <v>10.383</v>
       </c>
       <c r="G16">
-        <v>247.12549999999999</v>
+        <v>247.1255</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -9037,10 +9019,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>247.12549999999999</v>
+        <v>247.1255</v>
       </c>
       <c r="K16">
-        <v>247.12549999999999</v>
+        <v>247.1255</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -9049,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9069,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>286.82060000000001</v>
+        <v>286.8206</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -9078,10 +9060,10 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>286.82060000000001</v>
+        <v>286.8206</v>
       </c>
       <c r="K17">
-        <v>286.82060000000001</v>
+        <v>286.8206</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -9090,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -9110,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -9119,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="K18">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -9131,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -9151,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -9160,10 +9142,10 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="K19">
-        <v>97.957868087170013</v>
+        <v>97.95786808717001</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -9172,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -9213,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -9230,10 +9212,10 @@
         <v>219</v>
       </c>
       <c r="F21">
-        <v>6.4710000000000001</v>
+        <v>6.471</v>
       </c>
       <c r="G21">
-        <v>256.87133634355001</v>
+        <v>256.87133634355</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -9242,10 +9224,10 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>256.87133634355001</v>
+        <v>256.87133634355</v>
       </c>
       <c r="K21">
-        <v>256.87133634355001</v>
+        <v>256.87133634355</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -9254,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -9295,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -9312,10 +9294,10 @@
         <v>219</v>
       </c>
       <c r="F23">
-        <v>1.6970000000000001</v>
+        <v>1.697</v>
       </c>
       <c r="G23">
-        <v>35.281961160000002</v>
+        <v>35.28196116</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -9324,10 +9306,10 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>35.281961160000002</v>
+        <v>35.28196116</v>
       </c>
       <c r="K23">
-        <v>35.281961160000002</v>
+        <v>35.28196116</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -9336,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -9353,10 +9335,10 @@
         <v>219</v>
       </c>
       <c r="F24">
-        <v>8.2999999999999963E-2</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="G24">
-        <v>4.0969036680000004</v>
+        <v>4.096903668</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -9365,10 +9347,10 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4.0969036680000004</v>
+        <v>4.096903668</v>
       </c>
       <c r="K24">
-        <v>4.0969036680000004</v>
+        <v>4.096903668</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -9377,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -9394,10 +9376,10 @@
         <v>219</v>
       </c>
       <c r="F25">
-        <v>0.58999999999999986</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="G25">
-        <v>8.7692750109999995</v>
+        <v>8.769275011</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -9409,16 +9391,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.7692750109999995</v>
+        <v>8.769275011</v>
       </c>
       <c r="L25">
-        <v>8.7692750109999995</v>
+        <v>8.769275011</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -9435,10 +9417,10 @@
         <v>219</v>
       </c>
       <c r="F26">
-        <v>7.4940000000000007</v>
+        <v>7.494000000000001</v>
       </c>
       <c r="G26">
-        <v>156.82266490000001</v>
+        <v>156.8226649</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -9447,10 +9429,10 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>156.82266490000001</v>
+        <v>156.8226649</v>
       </c>
       <c r="K26">
-        <v>156.82266490000001</v>
+        <v>156.8226649</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -9459,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -9500,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -9517,10 +9499,10 @@
         <v>219</v>
       </c>
       <c r="F28">
-        <v>0.85099999999999909</v>
+        <v>0.8509999999999991</v>
       </c>
       <c r="G28">
-        <v>17.898320479999999</v>
+        <v>17.89832048</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -9529,10 +9511,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>17.898320479999999</v>
+        <v>17.89832048</v>
       </c>
       <c r="K28">
-        <v>17.898320479999999</v>
+        <v>17.89832048</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -9541,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -9561,7 +9543,7 @@
         <v>12.214</v>
       </c>
       <c r="G29">
-        <v>325.54000000000002</v>
+        <v>325.54</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -9570,10 +9552,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>325.54000000000002</v>
+        <v>325.54</v>
       </c>
       <c r="K29">
-        <v>325.54000000000002</v>
+        <v>325.54</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -9582,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -9623,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9664,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9684,7 +9666,7 @@
         <v>3.99</v>
       </c>
       <c r="G32">
-        <v>99.576484249999993</v>
+        <v>99.57648424999999</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -9693,10 +9675,10 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>99.576484249999993</v>
+        <v>99.57648424999999</v>
       </c>
       <c r="K32">
-        <v>99.576484249999993</v>
+        <v>99.57648424999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -9705,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9746,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9766,7 +9748,7 @@
         <v>0.6</v>
       </c>
       <c r="G34">
-        <v>16.015440000000002</v>
+        <v>16.01544</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -9775,10 +9757,10 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>16.015440000000002</v>
+        <v>16.01544</v>
       </c>
       <c r="K34">
-        <v>16.015440000000002</v>
+        <v>16.01544</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -9787,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9807,7 +9789,7 @@
         <v>8.4</v>
       </c>
       <c r="G35">
-        <v>225.95173299999999</v>
+        <v>225.951733</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -9816,10 +9798,10 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>225.95173299999999</v>
+        <v>225.951733</v>
       </c>
       <c r="K35">
-        <v>225.95173299999999</v>
+        <v>225.951733</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -9828,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9869,7 +9851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9889,7 +9871,7 @@
         <v>1.73</v>
       </c>
       <c r="G37">
-        <v>20.549423050000001</v>
+        <v>20.54942305</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -9910,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9930,7 +9912,7 @@
         <v>1.615</v>
       </c>
       <c r="G38">
-        <v>26.078112170000001</v>
+        <v>26.07811217</v>
       </c>
       <c r="H38">
         <v>2.16</v>
@@ -9939,10 +9921,10 @@
         <v>2.16</v>
       </c>
       <c r="J38">
-        <v>56.328722287200009</v>
+        <v>56.32872228720001</v>
       </c>
       <c r="K38">
-        <v>56.328722287200009</v>
+        <v>56.32872228720001</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -9951,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9971,7 +9953,7 @@
         <v>3.6</v>
       </c>
       <c r="G39">
-        <v>46.887345910000001</v>
+        <v>46.88734591</v>
       </c>
       <c r="H39">
         <v>0.4</v>
@@ -9980,10 +9962,10 @@
         <v>0.4</v>
       </c>
       <c r="J39">
-        <v>18.754938364000001</v>
+        <v>18.754938364</v>
       </c>
       <c r="K39">
-        <v>18.754938364000001</v>
+        <v>18.754938364</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -9992,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -10009,10 +9991,10 @@
         <v>219</v>
       </c>
       <c r="F40">
-        <v>6.8540000000000001</v>
+        <v>6.854</v>
       </c>
       <c r="G40">
-        <v>130.11837389999999</v>
+        <v>130.1183739</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -10021,10 +10003,10 @@
         <v>1</v>
       </c>
       <c r="J40">
-        <v>130.11837389999999</v>
+        <v>130.1183739</v>
       </c>
       <c r="K40">
-        <v>130.11837389999999</v>
+        <v>130.1183739</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -10033,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -10053,7 +10035,7 @@
         <v>6.1</v>
       </c>
       <c r="G41">
-        <v>120.33133599999999</v>
+        <v>120.331336</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -10062,10 +10044,10 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>120.33133599999999</v>
+        <v>120.331336</v>
       </c>
       <c r="K41">
-        <v>120.33133599999999</v>
+        <v>120.331336</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -10074,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -10094,7 +10076,7 @@
         <v>5.7</v>
       </c>
       <c r="G42">
-        <v>424.00323129999998</v>
+        <v>424.0032313</v>
       </c>
       <c r="H42">
         <v>0.65</v>
@@ -10106,16 +10088,16 @@
         <v>275.602100345</v>
       </c>
       <c r="K42">
-        <v>424.00323129999998</v>
+        <v>424.0032313</v>
       </c>
       <c r="L42">
-        <v>148.40113095500001</v>
+        <v>148.401130955</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -10135,7 +10117,7 @@
         <v>10.86</v>
       </c>
       <c r="G43">
-        <v>197.63842210000001</v>
+        <v>197.6384221</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -10156,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -10188,16 +10170,16 @@
         <v>2.8264</v>
       </c>
       <c r="K44">
-        <v>7.0659999999999998</v>
+        <v>7.066</v>
       </c>
       <c r="L44">
-        <v>4.2395999999999994</v>
+        <v>4.239599999999999</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -10238,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -10279,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -10320,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -10361,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -10381,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>143.61383592000001</v>
+        <v>143.61383592</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -10390,10 +10372,10 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>143.61383592000001</v>
+        <v>143.61383592</v>
       </c>
       <c r="K49">
-        <v>143.61383592000001</v>
+        <v>143.61383592</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -10402,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -10434,16 +10416,16 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>89.277500000000003</v>
+        <v>89.2775</v>
       </c>
       <c r="L50">
-        <v>89.277500000000003</v>
+        <v>89.2775</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -10463,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>128.66999999999999</v>
+        <v>128.67</v>
       </c>
       <c r="H51">
         <v>0.45</v>
@@ -10472,19 +10454,19 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>57.901499999999999</v>
+        <v>57.9015</v>
       </c>
       <c r="K51">
-        <v>128.66999999999999</v>
+        <v>128.67</v>
       </c>
       <c r="L51">
-        <v>70.768499999999989</v>
+        <v>70.76849999999999</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -10513,19 +10495,19 @@
         <v>1</v>
       </c>
       <c r="J52">
-        <v>175.39840000000001</v>
+        <v>175.3984</v>
       </c>
       <c r="K52">
         <v>274.06</v>
       </c>
       <c r="L52">
-        <v>98.661599999999993</v>
+        <v>98.66159999999999</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -10566,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -10595,19 +10577,19 @@
         <v>1</v>
       </c>
       <c r="J54">
-        <v>260.76549999999997</v>
+        <v>260.7655</v>
       </c>
       <c r="K54">
         <v>274.49</v>
       </c>
       <c r="L54">
-        <v>13.724500000000029</v>
+        <v>13.72450000000003</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -10648,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -10668,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>253.89347740292999</v>
+        <v>253.89347740293</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -10677,10 +10659,10 @@
         <v>1</v>
       </c>
       <c r="J56">
-        <v>253.89347740292999</v>
+        <v>253.89347740293</v>
       </c>
       <c r="K56">
-        <v>253.89347740292999</v>
+        <v>253.89347740293</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -10689,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -10709,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>277.03648500092999</v>
+        <v>277.03648500093</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -10718,10 +10700,10 @@
         <v>1</v>
       </c>
       <c r="J57">
-        <v>277.03648500092999</v>
+        <v>277.03648500093</v>
       </c>
       <c r="K57">
-        <v>277.03648500092999</v>
+        <v>277.03648500093</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -10730,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10750,7 +10732,7 @@
         <v>3.9</v>
       </c>
       <c r="G58">
-        <v>18.396996112979998</v>
+        <v>18.39699611298</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -10771,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -10791,7 +10773,7 @@
         <v>0.6</v>
       </c>
       <c r="G59">
-        <v>4.3979713727399998</v>
+        <v>4.39797137274</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -10800,10 +10782,10 @@
         <v>1</v>
       </c>
       <c r="J59">
-        <v>4.3979713727399998</v>
+        <v>4.39797137274</v>
       </c>
       <c r="K59">
-        <v>4.3979713727399998</v>
+        <v>4.39797137274</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -10812,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -10832,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>99.257006847780005</v>
+        <v>99.25700684778</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -10841,10 +10823,10 @@
         <v>1</v>
       </c>
       <c r="J60">
-        <v>99.257006847780005</v>
+        <v>99.25700684778</v>
       </c>
       <c r="K60">
-        <v>99.257006847780005</v>
+        <v>99.25700684778</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -10853,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10894,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10911,7 +10893,7 @@
         <v>219</v>
       </c>
       <c r="F62">
-        <v>0.36699999999999999</v>
+        <v>0.367</v>
       </c>
       <c r="G62">
         <v>167.9839919838</v>
@@ -10935,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10964,19 +10946,19 @@
         <v>1</v>
       </c>
       <c r="J63">
-        <v>221.31200000000001</v>
+        <v>221.312</v>
       </c>
       <c r="K63">
         <v>232.96</v>
       </c>
       <c r="L63">
-        <v>11.648000000000019</v>
+        <v>11.64800000000002</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11011,13 +10993,13 @@
         <v>193</v>
       </c>
       <c r="L64">
-        <v>9.6500000000000057</v>
+        <v>9.650000000000006</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11037,7 +11019,7 @@
         <v>10</v>
       </c>
       <c r="G65">
-        <v>576.66999999999996</v>
+        <v>576.67</v>
       </c>
       <c r="H65">
         <v>0.4</v>
@@ -11046,19 +11028,19 @@
         <v>1</v>
       </c>
       <c r="J65">
-        <v>230.66800000000001</v>
+        <v>230.668</v>
       </c>
       <c r="K65">
-        <v>576.66999999999996</v>
+        <v>576.67</v>
       </c>
       <c r="L65">
-        <v>346.00200000000001</v>
+        <v>346.002</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11093,13 +11075,13 @@
         <v>176.58</v>
       </c>
       <c r="L66">
-        <v>8.8290000000000077</v>
+        <v>8.829000000000008</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11116,7 +11098,7 @@
         <v>219</v>
       </c>
       <c r="F67">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="G67">
         <v>680.42</v>
@@ -11128,19 +11110,19 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>585.16120000000001</v>
+        <v>585.1612</v>
       </c>
       <c r="K67">
         <v>680.42</v>
       </c>
       <c r="L67">
-        <v>95.258799999999951</v>
+        <v>95.25879999999995</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -11181,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -11201,7 +11183,7 @@
         <v>9</v>
       </c>
       <c r="G69">
-        <v>616.91999999999996</v>
+        <v>616.92</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -11210,19 +11192,19 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>616.91999999999996</v>
+        <v>616.92</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>-616.91999999999996</v>
+        <v>-616.92</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -11251,19 +11233,19 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>227.69800000000001</v>
+        <v>227.698</v>
       </c>
       <c r="K70">
         <v>267.88</v>
       </c>
       <c r="L70">
-        <v>40.182000000000023</v>
+        <v>40.18200000000002</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -11304,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -11345,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -11386,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -11406,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>217.53240973000001</v>
+        <v>217.53240973</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -11415,10 +11397,10 @@
         <v>1</v>
       </c>
       <c r="J74">
-        <v>217.53240973000001</v>
+        <v>217.53240973</v>
       </c>
       <c r="K74">
-        <v>217.53240973000001</v>
+        <v>217.53240973</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -11427,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -11468,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11509,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11550,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11591,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11632,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11673,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11714,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11734,7 +11716,7 @@
         <v>25</v>
       </c>
       <c r="G82">
-        <v>274.47000000000003</v>
+        <v>274.47</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -11743,10 +11725,10 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <v>274.47000000000003</v>
+        <v>274.47</v>
       </c>
       <c r="K82">
-        <v>274.47000000000003</v>
+        <v>274.47</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -11755,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11775,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>159.86056307000001</v>
+        <v>159.86056307</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -11787,16 +11769,16 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>159.86056307000001</v>
+        <v>159.86056307</v>
       </c>
       <c r="L83">
-        <v>159.86056307000001</v>
+        <v>159.86056307</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11831,13 +11813,13 @@
         <v>161.42945938</v>
       </c>
       <c r="L84">
-        <v>32.285891875999987</v>
+        <v>32.28589187599999</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11857,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>186.82053396000001</v>
+        <v>186.82053396</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -11866,10 +11848,10 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>186.82053396000001</v>
+        <v>186.82053396</v>
       </c>
       <c r="K85">
-        <v>186.82053396000001</v>
+        <v>186.82053396</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -11878,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11907,19 +11889,19 @@
         <v>1</v>
       </c>
       <c r="J86">
-        <v>212.46985240800001</v>
+        <v>212.469852408</v>
       </c>
       <c r="K86">
         <v>265.58731551</v>
       </c>
       <c r="L86">
-        <v>53.117463101999988</v>
+        <v>53.11746310199999</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11960,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11980,7 +11962,7 @@
         <v>1.51</v>
       </c>
       <c r="G88">
-        <v>35.704111949999998</v>
+        <v>35.70411195</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -11989,10 +11971,10 @@
         <v>1</v>
       </c>
       <c r="J88">
-        <v>35.704111949999998</v>
+        <v>35.70411195</v>
       </c>
       <c r="K88">
-        <v>35.704111949999998</v>
+        <v>35.70411195</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -12001,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12018,10 +12000,10 @@
         <v>219</v>
       </c>
       <c r="F89">
-        <v>0.72499999999999998</v>
+        <v>0.725</v>
       </c>
       <c r="G89">
-        <v>17.142702759999999</v>
+        <v>17.14270276</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -12030,10 +12012,10 @@
         <v>1</v>
       </c>
       <c r="J89">
-        <v>17.142702759999999</v>
+        <v>17.14270276</v>
       </c>
       <c r="K89">
-        <v>17.142702759999999</v>
+        <v>17.14270276</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -12042,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12059,10 +12041,10 @@
         <v>219</v>
       </c>
       <c r="F90">
-        <v>2.5150000000000001</v>
+        <v>2.515</v>
       </c>
       <c r="G90">
-        <v>59.467444999999998</v>
+        <v>59.467445</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -12071,10 +12053,10 @@
         <v>1</v>
       </c>
       <c r="J90">
-        <v>59.467444999999998</v>
+        <v>59.467445</v>
       </c>
       <c r="K90">
-        <v>59.467444999999998</v>
+        <v>59.467445</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -12083,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12100,10 +12082,10 @@
         <v>219</v>
       </c>
       <c r="F91">
-        <v>5.9850000000000003</v>
+        <v>5.985</v>
       </c>
       <c r="G91">
-        <v>141.51596699999999</v>
+        <v>141.515967</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -12115,16 +12097,16 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>141.51596699999999</v>
+        <v>141.515967</v>
       </c>
       <c r="L91">
-        <v>141.51596699999999</v>
+        <v>141.515967</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12165,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12185,7 +12167,7 @@
         <v>15.82</v>
       </c>
       <c r="G93">
-        <v>472.96222940669998</v>
+        <v>472.9622294067</v>
       </c>
       <c r="H93">
         <v>0.19</v>
@@ -12194,19 +12176,19 @@
         <v>1</v>
       </c>
       <c r="J93">
-        <v>89.862823587272999</v>
+        <v>89.862823587273</v>
       </c>
       <c r="K93">
-        <v>472.96222940669998</v>
+        <v>472.9622294067</v>
       </c>
       <c r="L93">
-        <v>383.09940581942698</v>
+        <v>383.099405819427</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12223,10 +12205,10 @@
         <v>219</v>
       </c>
       <c r="F94">
-        <v>7.1130000000000004</v>
+        <v>7.113</v>
       </c>
       <c r="G94">
-        <v>374.96375491013998</v>
+        <v>374.96375491014</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -12238,16 +12220,16 @@
         <v>93.74093872753501</v>
       </c>
       <c r="K94">
-        <v>374.96375491013998</v>
+        <v>374.96375491014</v>
       </c>
       <c r="L94">
-        <v>281.22281618260502</v>
+        <v>281.222816182605</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12288,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12329,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12370,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12411,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12431,7 +12413,7 @@
         <v>1</v>
       </c>
       <c r="G99">
-        <v>41.018582780000003</v>
+        <v>41.01858278</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -12440,10 +12422,10 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>41.018582780000003</v>
+        <v>41.01858278</v>
       </c>
       <c r="K99">
-        <v>41.018582780000003</v>
+        <v>41.01858278</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -12452,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12493,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12513,7 +12495,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -12522,10 +12504,10 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="K101">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="L101">
         <v>0</v>
@@ -12534,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12554,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="H102">
         <v>0.75</v>
@@ -12563,19 +12545,19 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>31.477765590000001</v>
+        <v>31.47776559</v>
       </c>
       <c r="K102">
-        <v>41.970354120000003</v>
+        <v>41.97035412</v>
       </c>
       <c r="L102">
-        <v>10.492588530000001</v>
+        <v>10.49258853</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12598,16 +12580,16 @@
         <v>334.27</v>
       </c>
       <c r="H103">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="I103">
-        <v>0.56999999999999995</v>
+        <v>0.57</v>
       </c>
       <c r="J103">
-        <v>190.53389999999999</v>
+        <v>190.5339</v>
       </c>
       <c r="K103">
-        <v>190.53389999999999</v>
+        <v>190.5339</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -12616,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12636,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>321.39906300000001</v>
+        <v>321.399063</v>
       </c>
       <c r="H104">
         <v>0.48</v>
@@ -12645,10 +12627,10 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>154.27155024000001</v>
+        <v>154.27155024</v>
       </c>
       <c r="K104">
-        <v>321.39906300000001</v>
+        <v>321.399063</v>
       </c>
       <c r="L104">
         <v>167.12751276</v>
@@ -12657,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12677,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>156.68207290000001</v>
+        <v>156.6820729</v>
       </c>
       <c r="H105">
         <v>0.45</v>
@@ -12686,19 +12668,19 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>70.506932805000005</v>
+        <v>70.50693280500001</v>
       </c>
       <c r="K105">
-        <v>156.68207290000001</v>
+        <v>156.6820729</v>
       </c>
       <c r="L105">
-        <v>86.175140095000003</v>
+        <v>86.175140095</v>
       </c>
       <c r="M105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12739,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12756,10 +12738,10 @@
         <v>219</v>
       </c>
       <c r="F107">
-        <v>9.4939999999999998</v>
+        <v>9.494</v>
       </c>
       <c r="G107">
-        <v>329.10739257350991</v>
+        <v>329.1073925735099</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -12771,16 +12753,16 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>329.10739257350991</v>
+        <v>329.1073925735099</v>
       </c>
       <c r="L107">
-        <v>329.10739257350991</v>
+        <v>329.1073925735099</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12797,10 +12779,10 @@
         <v>219</v>
       </c>
       <c r="F108">
-        <v>10.462999999999999</v>
+        <v>10.463</v>
       </c>
       <c r="G108">
-        <v>235.99241562002001</v>
+        <v>235.99241562002</v>
       </c>
       <c r="H108">
         <v>0.8</v>
@@ -12809,10 +12791,10 @@
         <v>0.8</v>
       </c>
       <c r="J108">
-        <v>188.79393249601611</v>
+        <v>188.7939324960161</v>
       </c>
       <c r="K108">
-        <v>188.79393249601611</v>
+        <v>188.7939324960161</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -12821,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12862,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12903,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12923,7 +12905,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>5.8813662830000002</v>
+        <v>5.881366283</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -12935,16 +12917,16 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>5.8813662830000002</v>
+        <v>5.881366283</v>
       </c>
       <c r="L111">
-        <v>5.8813662830000002</v>
+        <v>5.881366283</v>
       </c>
       <c r="M111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -12961,10 +12943,10 @@
         <v>219</v>
       </c>
       <c r="F112">
-        <v>0.58399999999999996</v>
+        <v>0.584</v>
       </c>
       <c r="G112">
-        <v>8.1389467849999999</v>
+        <v>8.138946785</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -12976,16 +12958,16 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>8.1389467849999999</v>
+        <v>8.138946785</v>
       </c>
       <c r="L112">
-        <v>8.1389467849999999</v>
+        <v>8.138946785</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -13005,7 +12987,7 @@
         <v>2.9</v>
       </c>
       <c r="G113">
-        <v>84.879744000000002</v>
+        <v>84.879744</v>
       </c>
       <c r="H113">
         <v>0.16</v>
@@ -13017,16 +12999,16 @@
         <v>13.58075904</v>
       </c>
       <c r="K113">
-        <v>84.879744000000002</v>
+        <v>84.879744</v>
       </c>
       <c r="L113">
-        <v>71.298984959999999</v>
+        <v>71.29898496</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13067,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13087,7 +13069,7 @@
         <v>1.9</v>
       </c>
       <c r="G115">
-        <v>2.4463474449999998</v>
+        <v>2.446347445</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -13099,16 +13081,16 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>2.4463474449999998</v>
+        <v>2.446347445</v>
       </c>
       <c r="L115">
-        <v>2.4463474449999998</v>
+        <v>2.446347445</v>
       </c>
       <c r="M115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -13128,7 +13110,7 @@
         <v>1.7</v>
       </c>
       <c r="G116">
-        <v>14.607284999999999</v>
+        <v>14.607285</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -13137,10 +13119,10 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>14.607284999999999</v>
+        <v>14.607285</v>
       </c>
       <c r="K116">
-        <v>14.607284999999999</v>
+        <v>14.607285</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -13149,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -13169,7 +13151,7 @@
         <v>0.439</v>
       </c>
       <c r="G117">
-        <v>4.4591922139999998</v>
+        <v>4.459192214</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -13181,16 +13163,16 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>4.4591922139999998</v>
+        <v>4.459192214</v>
       </c>
       <c r="L117">
-        <v>4.4591922139999998</v>
+        <v>4.459192214</v>
       </c>
       <c r="M117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -13219,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>29.282533469494499</v>
+        <v>29.2825334694945</v>
       </c>
       <c r="K118">
         <v>195.21688979663</v>
@@ -13231,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -13251,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -13263,16 +13245,16 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="L119">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="M119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -13292,7 +13274,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -13304,16 +13286,16 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="L120">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="M120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -13333,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -13345,16 +13327,16 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="L121">
-        <v>36.661991779399997</v>
+        <v>36.6619917794</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -13389,13 +13371,13 @@
         <v>107.42083638742</v>
       </c>
       <c r="L122">
-        <v>21.484167277483991</v>
+        <v>21.48416727748399</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -13415,7 +13397,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>295.52623265905999</v>
+        <v>295.52623265906</v>
       </c>
       <c r="H123">
         <v>0.85</v>
@@ -13427,16 +13409,16 @@
         <v>251.197297760201</v>
       </c>
       <c r="K123">
-        <v>295.52623265905999</v>
+        <v>295.52623265906</v>
       </c>
       <c r="L123">
-        <v>44.328934898859018</v>
+        <v>44.32893489885902</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -13456,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>227.06035419159991</v>
+        <v>227.0603541915999</v>
       </c>
       <c r="H124">
         <v>0.95</v>
@@ -13465,10 +13447,10 @@
         <v>1</v>
       </c>
       <c r="J124">
-        <v>215.70733648201991</v>
+        <v>215.7073364820199</v>
       </c>
       <c r="K124">
-        <v>227.06035419159991</v>
+        <v>227.0603541915999</v>
       </c>
       <c r="L124">
         <v>11.35301770958</v>
@@ -13477,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -13494,10 +13476,10 @@
         <v>219</v>
       </c>
       <c r="F125">
-        <v>1.7749999999999999</v>
+        <v>1.775</v>
       </c>
       <c r="G125">
-        <v>28.577189027549998</v>
+        <v>28.57718902755</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -13509,16 +13491,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>8.5731567082649995</v>
+        <v>8.573156708265</v>
       </c>
       <c r="L125">
-        <v>8.5731567082649995</v>
+        <v>8.573156708265</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -13538,7 +13520,7 @@
         <v>0.15</v>
       </c>
       <c r="G126">
-        <v>3.8603672257600001</v>
+        <v>3.86036722576</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -13547,10 +13529,10 @@
         <v>1</v>
       </c>
       <c r="J126">
-        <v>3.8603672257600001</v>
+        <v>3.86036722576</v>
       </c>
       <c r="K126">
-        <v>3.8603672257600001</v>
+        <v>3.86036722576</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -13559,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -13579,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>38.929323272960012</v>
+        <v>38.92932327296001</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -13588,10 +13570,10 @@
         <v>1</v>
       </c>
       <c r="J127">
-        <v>38.929323272960012</v>
+        <v>38.92932327296001</v>
       </c>
       <c r="K127">
-        <v>38.929323272960012</v>
+        <v>38.92932327296001</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -13600,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -13620,7 +13602,7 @@
         <v>4</v>
       </c>
       <c r="G128">
-        <v>62.861978238559992</v>
+        <v>62.86197823855999</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -13629,10 +13611,10 @@
         <v>1</v>
       </c>
       <c r="J128">
-        <v>62.861978238559992</v>
+        <v>62.86197823855999</v>
       </c>
       <c r="K128">
-        <v>62.861978238559992</v>
+        <v>62.86197823855999</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -13641,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13682,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13702,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>405.93708967677009</v>
+        <v>405.9370896767701</v>
       </c>
       <c r="H130">
         <v>0.65</v>
@@ -13711,10 +13693,10 @@
         <v>1</v>
       </c>
       <c r="J130">
-        <v>263.85910828990058</v>
+        <v>263.8591082899006</v>
       </c>
       <c r="K130">
-        <v>405.93708967677009</v>
+        <v>405.9370896767701</v>
       </c>
       <c r="L130">
         <v>142.0779813868696</v>
@@ -13723,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -13743,7 +13725,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>320.03459359999999</v>
+        <v>320.0345936</v>
       </c>
       <c r="H131">
         <v>0.88</v>
@@ -13752,10 +13734,10 @@
         <v>0.88</v>
       </c>
       <c r="J131">
-        <v>281.63044236799999</v>
+        <v>281.630442368</v>
       </c>
       <c r="K131">
-        <v>281.63044236799999</v>
+        <v>281.630442368</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -13764,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -13784,7 +13766,7 @@
         <v>1.65</v>
       </c>
       <c r="G132">
-        <v>54.403540110000002</v>
+        <v>54.40354011</v>
       </c>
       <c r="H132">
         <v>0.36</v>
@@ -13793,19 +13775,19 @@
         <v>1</v>
       </c>
       <c r="J132">
-        <v>19.585274439599999</v>
+        <v>19.5852744396</v>
       </c>
       <c r="K132">
-        <v>54.403540110000002</v>
+        <v>54.40354011</v>
       </c>
       <c r="L132">
-        <v>34.818265670400002</v>
+        <v>34.8182656704</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -13846,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -13866,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>288.07948569393011</v>
+        <v>288.0794856939301</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -13887,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -13907,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>189.52974883928999</v>
+        <v>189.52974883929</v>
       </c>
       <c r="H135">
         <v>0.65</v>
@@ -13916,19 +13898,19 @@
         <v>1</v>
       </c>
       <c r="J135">
-        <v>123.19433674553849</v>
+        <v>123.1943367455385</v>
       </c>
       <c r="K135">
-        <v>189.52974883928999</v>
+        <v>189.52974883929</v>
       </c>
       <c r="L135">
-        <v>66.335412093751501</v>
+        <v>66.3354120937515</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -13948,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>41.822123349999998</v>
+        <v>41.82212335</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13969,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14004,13 +13986,13 @@
         <v>118.56733669862</v>
       </c>
       <c r="L137">
-        <v>16.599427137806799</v>
+        <v>16.5994271378068</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14051,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14071,7 +14053,7 @@
         <v>3.96</v>
       </c>
       <c r="G139">
-        <v>71.526410010000006</v>
+        <v>71.52641001000001</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -14092,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14133,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14150,10 +14132,10 @@
         <v>219</v>
       </c>
       <c r="F141">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="G141">
-        <v>16.387823999999998</v>
+        <v>16.387824</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -14174,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14221,14 +14203,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>263</v>
       </c>
@@ -14245,7 +14227,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14253,7 +14235,7 @@
         <v>222</v>
       </c>
       <c r="C2">
-        <v>76.819999999999993</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="D2">
         <v>496.54</v>
@@ -14265,7 +14247,7 @@
         <v>445.45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14273,19 +14255,19 @@
         <v>223</v>
       </c>
       <c r="C3">
-        <v>432.94823524999998</v>
+        <v>432.94823525</v>
       </c>
       <c r="D3">
-        <v>432.94823524999998</v>
+        <v>432.94823525</v>
       </c>
       <c r="E3">
         <v>347.71</v>
       </c>
       <c r="F3">
-        <v>85.238235250000059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85.23823525000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14293,19 +14275,19 @@
         <v>224</v>
       </c>
       <c r="C4">
-        <v>689.45749999999998</v>
+        <v>689.4575</v>
       </c>
       <c r="D4">
-        <v>689.45749999999998</v>
+        <v>689.4575</v>
       </c>
       <c r="E4">
-        <v>625.92999999999995</v>
+        <v>625.9299999999999</v>
       </c>
       <c r="F4">
-        <v>63.527500000000032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.52750000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14313,19 +14295,19 @@
         <v>225</v>
       </c>
       <c r="C5">
-        <v>710.51707251789003</v>
+        <v>710.51707251789</v>
       </c>
       <c r="D5">
-        <v>710.51707251789003</v>
+        <v>710.51707251789</v>
       </c>
       <c r="E5">
-        <v>714.69</v>
+        <v>714.6900000000001</v>
       </c>
       <c r="F5">
-        <v>-4.1729274821100262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-4.172927482110026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14336,16 +14318,16 @@
         <v>758.808006288</v>
       </c>
       <c r="D6">
-        <v>767.57728129899999</v>
+        <v>767.577281299</v>
       </c>
       <c r="E6">
         <v>575.15</v>
       </c>
       <c r="F6">
-        <v>192.42728129899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192.427281299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14353,19 +14335,19 @@
         <v>227</v>
       </c>
       <c r="C7">
-        <v>774.68816500936998</v>
+        <v>774.68816500937</v>
       </c>
       <c r="D7">
-        <v>774.68816500936998</v>
+        <v>774.68816500937</v>
       </c>
       <c r="E7">
         <v>837.25</v>
       </c>
       <c r="F7">
-        <v>-62.561834990630018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-62.56183499063002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -14373,19 +14355,19 @@
         <v>228</v>
       </c>
       <c r="C8">
-        <v>603.96187089620003</v>
+        <v>603.9618708962</v>
       </c>
       <c r="D8">
-        <v>812.34260185120002</v>
+        <v>812.3426018512</v>
       </c>
       <c r="E8">
-        <v>565.07000000000005</v>
+        <v>565.0700000000001</v>
       </c>
       <c r="F8">
-        <v>247.27260185119999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247.2726018512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14405,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14413,10 +14395,10 @@
         <v>229</v>
       </c>
       <c r="C10">
-        <v>715.84383592000006</v>
+        <v>715.8438359200001</v>
       </c>
       <c r="D10">
-        <v>715.84383592000006</v>
+        <v>715.8438359200001</v>
       </c>
       <c r="E10">
         <v>712.33</v>
@@ -14425,7 +14407,7 @@
         <v>3.51383592000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14433,19 +14415,19 @@
         <v>230</v>
       </c>
       <c r="C11">
-        <v>577.17989999999998</v>
+        <v>577.1799</v>
       </c>
       <c r="D11">
-        <v>835.88750000000005</v>
+        <v>835.8875</v>
       </c>
       <c r="E11">
         <v>409.68</v>
       </c>
       <c r="F11">
-        <v>426.20749999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>426.2075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14453,7 +14435,7 @@
         <v>231</v>
       </c>
       <c r="C12">
-        <v>539.58050000000003</v>
+        <v>539.5805</v>
       </c>
       <c r="D12">
         <v>832.12</v>
@@ -14465,7 +14447,7 @@
         <v>309.26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14473,19 +14455,19 @@
         <v>232</v>
       </c>
       <c r="C13">
-        <v>913.26344664162002</v>
+        <v>913.26344664162</v>
       </c>
       <c r="D13">
-        <v>913.26344664162002</v>
+        <v>913.26344664162</v>
       </c>
       <c r="E13">
         <v>705.59</v>
       </c>
       <c r="F13">
-        <v>207.67344664161999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207.67344664162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14493,19 +14475,19 @@
         <v>233</v>
       </c>
       <c r="C14">
-        <v>635.32999999999993</v>
+        <v>635.3299999999999</v>
       </c>
       <c r="D14">
         <v>1002.63</v>
       </c>
       <c r="E14">
-        <v>647.20000000000005</v>
+        <v>647.2</v>
       </c>
       <c r="F14">
-        <v>355.42999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>355.4299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14513,7 +14495,7 @@
         <v>234</v>
       </c>
       <c r="C15">
-        <v>752.91219999999998</v>
+        <v>752.9122</v>
       </c>
       <c r="D15">
         <v>857</v>
@@ -14522,10 +14504,10 @@
         <v>806.89</v>
       </c>
       <c r="F15">
-        <v>50.110000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50.11000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -14533,7 +14515,7 @@
         <v>235</v>
       </c>
       <c r="C16">
-        <v>616.91999999999996</v>
+        <v>616.92</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -14545,7 +14527,7 @@
         <v>-333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -14553,19 +14535,19 @@
         <v>236</v>
       </c>
       <c r="C17">
-        <v>738.98800000000006</v>
+        <v>738.9880000000001</v>
       </c>
       <c r="D17">
-        <v>779.17000000000007</v>
+        <v>779.1700000000001</v>
       </c>
       <c r="E17">
         <v>721.62</v>
       </c>
       <c r="F17">
-        <v>57.550000000000068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57.55000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -14573,19 +14555,19 @@
         <v>237</v>
       </c>
       <c r="C18">
-        <v>1568.1457086800001</v>
+        <v>1568.14570868</v>
       </c>
       <c r="D18">
-        <v>1568.1457086800001</v>
+        <v>1568.14570868</v>
       </c>
       <c r="E18">
         <v>1451.95</v>
       </c>
       <c r="F18">
-        <v>116.19570868000029</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116.1957086800003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -14593,19 +14575,19 @@
         <v>238</v>
       </c>
       <c r="C19">
-        <v>640.74821358200006</v>
+        <v>640.7482135820001</v>
       </c>
       <c r="D19">
-        <v>1214.5608969299999</v>
+        <v>1214.56089693</v>
       </c>
       <c r="E19">
         <v>711.02</v>
       </c>
       <c r="F19">
-        <v>503.54089693000009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>503.5408969300001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -14613,19 +14595,19 @@
         <v>239</v>
       </c>
       <c r="C20">
-        <v>183.60376231480799</v>
+        <v>183.603762314808</v>
       </c>
       <c r="D20">
-        <v>847.92598431683996</v>
+        <v>847.92598431684</v>
       </c>
       <c r="E20">
         <v>331.35</v>
       </c>
       <c r="F20">
-        <v>516.57598431683994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516.5759843168399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -14633,7 +14615,7 @@
         <v>240</v>
       </c>
       <c r="C21">
-        <v>999.48969789999978</v>
+        <v>999.4896978999998</v>
       </c>
       <c r="D21">
         <v>1009.98228643</v>
@@ -14642,10 +14624,10 @@
         <v>501.12</v>
       </c>
       <c r="F21">
-        <v>508.86228642999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>508.8622864299999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -14656,16 +14638,16 @@
         <v>224.778483045</v>
       </c>
       <c r="D22">
-        <v>927.74489275000019</v>
+        <v>927.7448927500002</v>
       </c>
       <c r="E22">
         <v>268.24</v>
       </c>
       <c r="F22">
-        <v>659.50489275000018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>659.5048927500002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -14673,19 +14655,19 @@
         <v>242</v>
       </c>
       <c r="C23">
-        <v>274.33237250551048</v>
+        <v>274.3323725055105</v>
       </c>
       <c r="D23">
-        <v>672.53141591784583</v>
+        <v>672.5314159178458</v>
       </c>
       <c r="E23">
         <v>281.05</v>
       </c>
       <c r="F23">
-        <v>391.48141591784582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>391.4814159178458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -14693,19 +14675,19 @@
         <v>243</v>
       </c>
       <c r="C24">
-        <v>658.49297208943699</v>
+        <v>658.492972089437</v>
       </c>
       <c r="D24">
-        <v>744.23224868362502</v>
+        <v>744.232248683625</v>
       </c>
       <c r="E24">
         <v>720.33</v>
       </c>
       <c r="F24">
-        <v>23.902248683624979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23.90224868362498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -14725,7 +14707,7 @@
         <v>258.7762001492996</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -14733,7 +14715,7 @@
         <v>245</v>
       </c>
       <c r="C26">
-        <v>790.23707140385216</v>
+        <v>790.2370714038522</v>
       </c>
       <c r="D26">
         <v>1050.06815769268</v>
@@ -14742,10 +14724,10 @@
         <v>749.37</v>
       </c>
       <c r="F26">
-        <v>300.69815769268018</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300.6981576926802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -14765,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -14785,7 +14767,7 @@
         <v>-319.33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -14805,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -14825,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -14845,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -14865,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -14885,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -14905,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -14925,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -14945,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -14965,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -14985,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -15011,14 +14993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15041,7 +15023,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15055,19 +15037,19 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>629.83378779937311</v>
+        <v>629.8337877993731</v>
       </c>
       <c r="F2">
-        <v>646.43321493717997</v>
+        <v>646.43321493718</v>
       </c>
       <c r="G2">
         <v>291.81</v>
       </c>
       <c r="H2">
-        <v>354.62321493718002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>354.62321493718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15093,7 +15075,7 @@
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15107,19 +15089,19 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>4909.1188579946911</v>
+        <v>4909.118857994691</v>
       </c>
       <c r="F4">
-        <v>5614.7535333749993</v>
+        <v>5614.753533374999</v>
       </c>
       <c r="G4">
         <v>6503.97</v>
       </c>
       <c r="H4">
-        <v>-889.21646662500098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-889.216466625001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15133,19 +15115,19 @@
         <v>37</v>
       </c>
       <c r="E5">
-        <v>216.37262222295999</v>
+        <v>216.37262222296</v>
       </c>
       <c r="F5">
-        <v>326.35859756116002</v>
+        <v>326.35859756116</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>326.35859756116002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>326.35859756116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15159,19 +15141,19 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>1650.8046600070329</v>
+        <v>1650.804660007033</v>
       </c>
       <c r="F6">
-        <v>2128.3383464759199</v>
+        <v>2128.33834647592</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2128.3383464759199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2128.33834647592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15197,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15220,10 +15202,10 @@
         <v>2546.54</v>
       </c>
       <c r="H8">
-        <v>1210.5533454048241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1210.553345404824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15237,7 +15219,7 @@
         <v>39</v>
       </c>
       <c r="E9">
-        <v>76.819999999999993</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="F9">
         <v>451.75</v>
@@ -15249,7 +15231,7 @@
         <v>400.66</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15275,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15301,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15315,19 +15297,19 @@
         <v>42</v>
       </c>
       <c r="E12">
-        <v>6093.1421931468012</v>
+        <v>6093.142193146801</v>
       </c>
       <c r="F12">
-        <v>6714.3000280087963</v>
+        <v>6714.300028008796</v>
       </c>
       <c r="G12">
         <v>5833.04</v>
       </c>
       <c r="H12">
-        <v>881.26002800879633</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>881.2600280087963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15353,7 +15335,7 @@
         <v>120.5563642764902</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15379,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15405,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15437,23 +15419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15470,253 +15443,244 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>629.83378779937311</v>
-      </c>
-      <c r="D2" s="2">
-        <v>646.43321493717997</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2">
+        <v>629.8337877993731</v>
+      </c>
+      <c r="D2">
+        <v>646.43321493718</v>
+      </c>
+      <c r="E2">
         <v>291.81</v>
       </c>
-      <c r="F2" s="2">
-        <v>354.62321493718002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>354.62321493718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>44.79</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>44.79</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2">
-        <v>6776.2961402246838</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8069.4504774120796</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4">
+        <v>6776.296140224684</v>
+      </c>
+      <c r="D4">
+        <v>8069.45047741208</v>
+      </c>
+      <c r="E4">
         <v>6503.97</v>
       </c>
-      <c r="F4" s="2">
-        <v>1565.4804774120789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1565.480477412079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2450.151093022128</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>3757.093345404824</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>2546.54</v>
       </c>
-      <c r="F5" s="2">
-        <v>1210.5533454048241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1210.553345404824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2">
-        <v>76.819999999999993</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="D6">
         <v>451.75</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>51.09</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>400.66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2">
-        <v>6093.1421931468012</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6714.3000280087963</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9">
+        <v>6093.142193146801</v>
+      </c>
+      <c r="D9">
+        <v>6714.300028008796</v>
+      </c>
+      <c r="E9">
         <v>5833.04</v>
       </c>
-      <c r="F9" s="2">
-        <v>881.26002800879633</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>881.2600280087963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>120.5563642764902</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>120.5563642764902</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <f>SUM(F2:F13)</f>
-        <v>4577.9234300393691</v>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
